--- a/external data/partners.xlsx
+++ b/external data/partners.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.gronowski\Hackathon\sfdc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hack_final\test\hckt19\external data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C327595-BC51-46E9-9DA6-3DBE3B013AE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB4404C-87EB-4699-AE99-088AB6D43C52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76E7E05F-7FE7-438B-97CD-7CAE63169B88}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="175">
   <si>
     <t>business_name</t>
   </si>
@@ -492,15 +492,6 @@
     <t>Landmark's Kendall Square Cinema</t>
   </si>
   <si>
-    <t>Strona</t>
-  </si>
-  <si>
-    <t>Trasa</t>
-  </si>
-  <si>
-    <t>Zapisz</t>
-  </si>
-  <si>
     <t>355 Binney St, Cambridge</t>
   </si>
   <si>
@@ -508,13 +499,70 @@
   </si>
   <si>
     <t>https://www.landmarktheatres.com/boston/kendall-square-cinema</t>
+  </si>
+  <si>
+    <t>Nike Store</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>200 Newbury St</t>
+  </si>
+  <si>
+    <t>https://nike.com</t>
+  </si>
+  <si>
+    <t>Nike Factory Store</t>
+  </si>
+  <si>
+    <t>33 District Avenue, Dorchester</t>
+  </si>
+  <si>
+    <t>Bostonian Society Museum</t>
+  </si>
+  <si>
+    <t>617-720-3284</t>
+  </si>
+  <si>
+    <t>Museum</t>
+  </si>
+  <si>
+    <t>bostonhistory.org</t>
+  </si>
+  <si>
+    <t>1 Faneuil Hall Sq</t>
+  </si>
+  <si>
+    <t>Museum of Fine Arts</t>
+  </si>
+  <si>
+    <t>617-267-9300</t>
+  </si>
+  <si>
+    <t>mfa.org</t>
+  </si>
+  <si>
+    <t>465 Huntington Ave</t>
+  </si>
+  <si>
+    <t>MIT Museum</t>
+  </si>
+  <si>
+    <t>617-253-5927</t>
+  </si>
+  <si>
+    <t>mitmuseum.mit.edu</t>
+  </si>
+  <si>
+    <t>265 Massachusetts Ave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +577,15 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -548,16 +605,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -871,10 +932,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C098FD4-5C41-41F8-9265-FD1A8570F60C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,16 +1842,16 @@
         <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
         <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -1804,21 +1865,134 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>2116</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>2125</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>2139</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D34" r:id="rId1" xr:uid="{9CF52D77-792A-451E-B185-83BE38A77E43}"/>
+    <hyperlink ref="D35" r:id="rId2" xr:uid="{2CCD2559-4F8D-4489-89BA-4348FA1BDB18}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>